--- a/PO data.xlsx
+++ b/PO data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c89e911ec1599c7/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7F02A131-FB8E-4E5B-BC73-0614B53CEE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8C0B10-DEEB-40AD-B582-0A8C4472FF4F}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{7F02A131-FB8E-4E5B-BC73-0614B53CEE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD87B9A5-F971-429D-B3F2-E3A58DB52168}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4844D5D6-45E6-4CF5-8858-C62B7F87747D}"/>
+    <workbookView minimized="1" xWindow="2453" yWindow="2453" windowWidth="16200" windowHeight="9307" xr2:uid="{4844D5D6-45E6-4CF5-8858-C62B7F87747D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Loans</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>1940</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +368,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +594,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -550,17 +728,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
@@ -590,8 +759,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -637,15 +806,346 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="352" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="383">
     <cellStyle name="20 % – uthevingsfarge 1 2" xfId="2" xr:uid="{CF3FC3DD-E33C-4CBF-B6E5-AA625A5A7A7D}"/>
     <cellStyle name="20 % – uthevingsfarge 2 2" xfId="3" xr:uid="{701A40E2-C65E-4505-8FEE-06F97DFFC844}"/>
     <cellStyle name="20 % – uthevingsfarge 3 2" xfId="4" xr:uid="{145044E7-7AB0-44CC-8427-AE48AF837E52}"/>
@@ -665,53 +1165,341 @@
     <cellStyle name="60 % – uthevingsfarge 5 2" xfId="18" xr:uid="{373C43A7-9FEB-4990-A2EC-903D80B0C1D6}"/>
     <cellStyle name="60 % – uthevingsfarge 6 2" xfId="19" xr:uid="{47192D3B-6C43-4F7C-B156-009AD03932DE}"/>
     <cellStyle name="Benyttet hyperkobling" xfId="32" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Benyttet hyperkobling 2" xfId="99" xr:uid="{036D44AA-CAC9-4AEC-BCDF-D722303DC865}"/>
     <cellStyle name="Beregning 2" xfId="27" xr:uid="{128C5C05-4284-438C-8E9B-DB5CF2440E0D}"/>
+    <cellStyle name="Comma [0] 2" xfId="77" xr:uid="{57311AA9-11B8-41D7-A770-39B0BF6A155D}"/>
+    <cellStyle name="Comma 2" xfId="78" xr:uid="{58D26E2A-914D-4F7E-BA80-71130CABD7DF}"/>
+    <cellStyle name="Comma 3" xfId="79" xr:uid="{1B41DE80-BEEE-448A-8BC5-E9444EE29879}"/>
+    <cellStyle name="Comma 3 2" xfId="80" xr:uid="{30192DBA-9961-4CA3-AEBD-5DF18FBC5E54}"/>
+    <cellStyle name="Comma 3 2 2" xfId="81" xr:uid="{3EA40139-ACC4-4280-A85E-62BD7BF9AE8A}"/>
+    <cellStyle name="Comma 3 2 3" xfId="82" xr:uid="{0300D002-8C9A-4B4E-814B-1D3BDE2E6962}"/>
+    <cellStyle name="Comma 3 3" xfId="83" xr:uid="{73107763-1A5A-4C08-808D-03F09F78A180}"/>
+    <cellStyle name="Comma 3 4" xfId="84" xr:uid="{341665F3-FF95-4A27-9EBF-242F580D8F31}"/>
+    <cellStyle name="Comma 4" xfId="85" xr:uid="{032610B6-A7B7-4D23-B643-895E01E7A599}"/>
+    <cellStyle name="Comma 4 2" xfId="86" xr:uid="{CBC42021-C6B9-4AC4-9D15-9036F5A64670}"/>
+    <cellStyle name="Comma 4 2 2" xfId="87" xr:uid="{26510C5C-FBCB-4ADE-968C-0DA43E293989}"/>
+    <cellStyle name="Comma 4 2 3" xfId="88" xr:uid="{27077337-933C-424A-A4BB-CD1EEBDC4727}"/>
+    <cellStyle name="Comma 4 3" xfId="89" xr:uid="{0FF49895-A806-4926-9B1E-00D72672503B}"/>
+    <cellStyle name="Comma 4 4" xfId="90" xr:uid="{A31E7C70-28FA-4DF2-84BC-FCAD30508D4F}"/>
+    <cellStyle name="Comma 5" xfId="91" xr:uid="{3F254CFF-5E3A-4CD4-89F8-8BEB5485056D}"/>
+    <cellStyle name="Comma 5 2" xfId="92" xr:uid="{B5A90A73-5502-43AA-A47E-0DBB4E0F0072}"/>
+    <cellStyle name="Comma 5 3" xfId="93" xr:uid="{81DE2A19-462C-46A3-A8AD-F3E590A112EA}"/>
+    <cellStyle name="Currency [0] 2" xfId="96" xr:uid="{2D8536BD-9A3F-415E-9498-58A555ECC600}"/>
+    <cellStyle name="Currency 2" xfId="97" xr:uid="{134D27D6-61B9-4CC3-982E-38FE131E4D4F}"/>
     <cellStyle name="Dato" xfId="30" xr:uid="{6B09C58B-A2BF-44F9-8C28-96280351164E}"/>
+    <cellStyle name="Dato 2" xfId="98" xr:uid="{5BAB9C2B-F426-4794-AE1D-D8346FEC900A}"/>
     <cellStyle name="Dårlig 2" xfId="26" xr:uid="{ADC92B4D-3989-4CEB-BC4E-D52CD8D5252F}"/>
     <cellStyle name="Forklarende tekst 2" xfId="31" xr:uid="{81633DED-6CC5-4159-8B8E-83373E3D1848}"/>
     <cellStyle name="Forside overskrift 1" xfId="33" xr:uid="{B0F58754-E434-4E57-8039-9868807DC5CE}"/>
+    <cellStyle name="Forside overskrift 2" xfId="100" xr:uid="{D7D3EC83-9D69-4E02-A6A5-0CBDC22C61EF}"/>
     <cellStyle name="God 2" xfId="34" xr:uid="{5AA6BCB5-F950-40B9-A4DC-1FD6A8DC2244}"/>
     <cellStyle name="Hyperkobling" xfId="39" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hyperkobling 2" xfId="101" xr:uid="{D6D0A513-7ED7-4692-BBC9-4CB48756C8FD}"/>
+    <cellStyle name="Hyperkobling 3" xfId="102" xr:uid="{12B9044D-F367-4BEC-9E32-D20EC835F462}"/>
+    <cellStyle name="Hyperkobling 4" xfId="103" xr:uid="{A419943F-2A8C-474D-B0C7-C81113D53051}"/>
+    <cellStyle name="Hyperkobling 5" xfId="104" xr:uid="{338597CD-7723-4C5F-9FE6-2C193F036E12}"/>
     <cellStyle name="Hyperlink 2" xfId="40" xr:uid="{30544A4C-0DA0-4E89-B91C-FE30A90FA303}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="105" xr:uid="{B75104E0-8C83-4875-B350-7B1009F4A406}"/>
     <cellStyle name="Inndata 2" xfId="41" xr:uid="{52E27A78-5FDB-47FF-87A4-D15BB530D210}"/>
     <cellStyle name="Koblet celle 2" xfId="43" xr:uid="{BB242B6E-D1F6-4722-BBBA-5FBCDFEBC60D}"/>
     <cellStyle name="Kolonne" xfId="42" xr:uid="{FCC0419C-6A0A-41B9-B45F-79A135CE1E50}"/>
+    <cellStyle name="Kolonne 2" xfId="106" xr:uid="{A1A6440B-CC52-4788-A14C-DCBD55D7CB3B}"/>
     <cellStyle name="Komma 2" xfId="29" xr:uid="{1609A8F2-4D68-4921-9C6E-EF097A79A2B6}"/>
+    <cellStyle name="Komma 2 2" xfId="107" xr:uid="{25183FCA-14D1-4FBA-AADD-299301DC97A5}"/>
+    <cellStyle name="Komma 3" xfId="75" xr:uid="{F0743582-9B5F-40E9-8929-62016ED5FF33}"/>
     <cellStyle name="Kontrollcelle 2" xfId="28" xr:uid="{75D33D5A-B372-4CE6-824D-4F11B2203CD6}"/>
     <cellStyle name="Merknad 2" xfId="67" xr:uid="{1C03D32D-A618-4891-83B1-592D9E4062BC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="108" xr:uid="{3447B4D9-DC80-48AC-BF35-E7369F60DCF5}"/>
     <cellStyle name="Normal 10 2" xfId="45" xr:uid="{04C99F30-6D00-4677-B247-69646D730E86}"/>
+    <cellStyle name="Normal 10 2 2" xfId="110" xr:uid="{46733CE7-9F8B-459C-B742-72334DE01131}"/>
     <cellStyle name="Normal 10 2 2 2" xfId="46" xr:uid="{DA4DF7F3-4F47-4F7B-8AC6-D085C961D388}"/>
+    <cellStyle name="Normal 10 2 2 2 2" xfId="111" xr:uid="{0A79743E-DB54-48DE-B932-651B5D37EC7F}"/>
+    <cellStyle name="Normal 10 2 3" xfId="112" xr:uid="{B7756F1D-5DF2-46BE-B6BF-EFC2C4B94A82}"/>
+    <cellStyle name="Normal 10 2 4" xfId="109" xr:uid="{9E4B77E9-F9FA-4762-A0B7-B1CD4B098089}"/>
+    <cellStyle name="Normal 10 3" xfId="113" xr:uid="{9994E961-788B-4A2A-B52F-4A97E7EC5EF0}"/>
+    <cellStyle name="Normal 10 3 2" xfId="114" xr:uid="{E2B313B2-E871-4E4F-BF13-CAE16BAC824C}"/>
+    <cellStyle name="Normal 10 4" xfId="115" xr:uid="{1A391285-FC93-4D13-8B2E-B01F3CA883A3}"/>
     <cellStyle name="Normal 11" xfId="47" xr:uid="{224B77B0-8C07-4501-AC35-6AB73E04E18D}"/>
+    <cellStyle name="Normal 11 2" xfId="117" xr:uid="{9ED38BCD-95F4-42F0-84AA-4B992CE720AE}"/>
+    <cellStyle name="Normal 11 2 2" xfId="118" xr:uid="{7D6D05B3-FA2F-4CB8-9934-A4CABE5B7A43}"/>
+    <cellStyle name="Normal 11 2 2 2" xfId="119" xr:uid="{7CD68C21-ED5C-4DF4-896B-AF69C443B8FE}"/>
+    <cellStyle name="Normal 11 2 3" xfId="120" xr:uid="{CC591DAD-749F-4611-9AE0-E73A6449A96D}"/>
+    <cellStyle name="Normal 11 3" xfId="121" xr:uid="{0028319E-C40B-4D04-A7BC-80EB07D39E0A}"/>
+    <cellStyle name="Normal 11 3 2" xfId="122" xr:uid="{5D719102-4F64-4808-9EDF-688CE2AFF98F}"/>
+    <cellStyle name="Normal 11 4" xfId="123" xr:uid="{CC5F4BDB-0E34-44BE-A4C8-BB9194B65E54}"/>
+    <cellStyle name="Normal 11 5" xfId="116" xr:uid="{AB71AA9A-A267-473E-AC1F-729D6171D969}"/>
+    <cellStyle name="Normal 12" xfId="124" xr:uid="{E2E92B23-0FF6-4411-A2F7-F178270C2C7A}"/>
+    <cellStyle name="Normal 12 2" xfId="125" xr:uid="{92185CDF-91F7-4704-9E96-91FAA8062DE5}"/>
+    <cellStyle name="Normal 12 2 2" xfId="126" xr:uid="{6E9B0A17-5B3C-4A15-9125-4FA8C3B90516}"/>
+    <cellStyle name="Normal 12 2 2 2" xfId="127" xr:uid="{AC5A124B-1337-42F6-AB74-D3E0C6D84297}"/>
+    <cellStyle name="Normal 12 2 3" xfId="128" xr:uid="{5E0329BF-8ADB-418F-A793-8FE6EFF9B4B6}"/>
+    <cellStyle name="Normal 12 3" xfId="129" xr:uid="{64DA43A2-A58F-48A4-8B09-F791EE436B8B}"/>
+    <cellStyle name="Normal 12 3 2" xfId="130" xr:uid="{2D3AE2E0-470E-4C17-8450-2A073C5965FD}"/>
+    <cellStyle name="Normal 12 4" xfId="131" xr:uid="{C874980A-25F2-4B3D-8CDF-14209B4F9AA6}"/>
+    <cellStyle name="Normal 13" xfId="132" xr:uid="{ABDE31BA-1663-4AD5-BCDF-E29D18BB88DA}"/>
+    <cellStyle name="Normal 13 2" xfId="133" xr:uid="{1C01BE52-2A31-4AA3-B91D-167BE10D2561}"/>
+    <cellStyle name="Normal 13 2 2" xfId="134" xr:uid="{399EF883-B04C-48E8-B062-7ED342952847}"/>
+    <cellStyle name="Normal 13 2 2 2" xfId="135" xr:uid="{C2FBD6F2-5751-430E-94E6-B080D936ECC9}"/>
+    <cellStyle name="Normal 13 2 3" xfId="136" xr:uid="{18C59A80-25E6-4D41-8A53-85CE705AFD6F}"/>
+    <cellStyle name="Normal 13 3" xfId="137" xr:uid="{5F6EDA1D-7D9D-40CB-8E1C-3FE13E2C6248}"/>
+    <cellStyle name="Normal 13 3 2" xfId="138" xr:uid="{6FC4668B-63B9-4D98-B56A-957DD866E5B5}"/>
+    <cellStyle name="Normal 13 4" xfId="139" xr:uid="{F1937E0C-514E-4912-A962-D4160289D042}"/>
     <cellStyle name="Normal 14" xfId="48" xr:uid="{FEDB653D-8D9F-4229-B1CA-1CE559B7B626}"/>
     <cellStyle name="Normal 14 2" xfId="49" xr:uid="{FFAC0403-D942-4141-9096-2123F359DA0A}"/>
     <cellStyle name="Normal 15" xfId="50" xr:uid="{E19C1351-DEA0-41E5-98B4-B17123119B3E}"/>
+    <cellStyle name="Normal 15 2" xfId="141" xr:uid="{E3581A46-4BC8-4EB9-B621-C092156A9C46}"/>
+    <cellStyle name="Normal 15 2 2" xfId="142" xr:uid="{A701461E-3D56-4E7C-AA09-19F949D87218}"/>
+    <cellStyle name="Normal 15 2 2 2" xfId="143" xr:uid="{FA174088-871E-48AD-BFA9-2E337E82F183}"/>
+    <cellStyle name="Normal 15 2 3" xfId="144" xr:uid="{4C47CEA7-C5C4-4A89-9835-1A01CAE38F1D}"/>
+    <cellStyle name="Normal 15 3" xfId="145" xr:uid="{3711FBC4-CC98-4CD5-9FBD-5005581952BF}"/>
+    <cellStyle name="Normal 15 3 2" xfId="146" xr:uid="{9E47319B-171B-45E8-81AD-2AC959862F96}"/>
+    <cellStyle name="Normal 15 4" xfId="147" xr:uid="{8B84C437-6A9C-41C6-97BE-9978D0CAB8A0}"/>
+    <cellStyle name="Normal 15 5" xfId="140" xr:uid="{2E1C4CDC-C56D-4335-8573-72537B175729}"/>
     <cellStyle name="Normal 16" xfId="51" xr:uid="{8C3BC574-DBE1-427C-BEDA-8C035794662B}"/>
+    <cellStyle name="Normal 16 2" xfId="149" xr:uid="{4252ABBB-C1FA-4E47-BE16-BBEF99D2F018}"/>
+    <cellStyle name="Normal 16 2 2" xfId="150" xr:uid="{34B869D0-6373-4EB3-A769-C4890CBC9C0B}"/>
+    <cellStyle name="Normal 16 2 2 2" xfId="151" xr:uid="{D94C41AB-D140-495D-B986-0930844D5113}"/>
+    <cellStyle name="Normal 16 2 3" xfId="152" xr:uid="{D58927B2-C261-4390-A2A1-E44FCD5FED0A}"/>
+    <cellStyle name="Normal 16 3" xfId="153" xr:uid="{6FAC9DC0-5DB7-4CD4-B850-AF95295D8091}"/>
+    <cellStyle name="Normal 16 3 2" xfId="154" xr:uid="{0D151F05-5822-4B3C-90F7-09FD8ACDBA2B}"/>
+    <cellStyle name="Normal 16 4" xfId="155" xr:uid="{6CE14B8D-A1C2-4DDF-BE97-61144886350C}"/>
+    <cellStyle name="Normal 16 5" xfId="148" xr:uid="{CCF3107C-05A2-4116-8A84-29544DD09F46}"/>
     <cellStyle name="Normal 17" xfId="52" xr:uid="{E2C916A1-9102-42B4-ACF1-C6C377D5BAB2}"/>
+    <cellStyle name="Normal 17 2" xfId="157" xr:uid="{53EC1D73-D4D5-4428-9351-C73DD50F37D5}"/>
+    <cellStyle name="Normal 17 2 2" xfId="158" xr:uid="{5B470FC3-3991-4E6D-B3CA-73C7F56946D2}"/>
+    <cellStyle name="Normal 17 2 2 2" xfId="159" xr:uid="{74A58E3F-10E1-42EE-91E2-4CEDE3580539}"/>
+    <cellStyle name="Normal 17 2 3" xfId="160" xr:uid="{69BEA7AB-9EEB-402E-8D14-0B066D7B6199}"/>
+    <cellStyle name="Normal 17 3" xfId="161" xr:uid="{353DEAE8-77F6-498F-A207-A7BFDED3389C}"/>
+    <cellStyle name="Normal 17 3 2" xfId="162" xr:uid="{80FF28AD-EE97-4DAC-9B52-42C2E35B2086}"/>
+    <cellStyle name="Normal 17 4" xfId="163" xr:uid="{156E1A00-C533-4B74-8CA1-E362020C9D24}"/>
+    <cellStyle name="Normal 17 5" xfId="156" xr:uid="{4AEC1745-5F74-4454-934E-D4F7E2507907}"/>
+    <cellStyle name="Normal 18" xfId="164" xr:uid="{1053BF4A-3C99-4E99-81D0-8C90C3696B9B}"/>
+    <cellStyle name="Normal 18 2" xfId="165" xr:uid="{36960016-F141-4D47-B689-D582FD79D8B3}"/>
+    <cellStyle name="Normal 18 2 2" xfId="166" xr:uid="{78C4C49F-DD19-4A48-BB9A-2D6FAFD3E150}"/>
+    <cellStyle name="Normal 18 2 2 2" xfId="167" xr:uid="{00C7C249-AD51-47E0-BA08-4986D1509D75}"/>
+    <cellStyle name="Normal 18 2 3" xfId="168" xr:uid="{58EACAED-36F3-45A7-8533-B39C8F249DE9}"/>
+    <cellStyle name="Normal 18 3" xfId="169" xr:uid="{AD414DE0-E710-480E-A09E-27DAB49EAD51}"/>
+    <cellStyle name="Normal 18 3 2" xfId="170" xr:uid="{8DBD552C-6363-408E-82E4-362D5F4E5F90}"/>
+    <cellStyle name="Normal 18 4" xfId="171" xr:uid="{B5C567A6-E35F-4E44-9E95-587987A2F29E}"/>
     <cellStyle name="Normal 19" xfId="53" xr:uid="{08AB5856-66C0-49A9-9A59-2CB49E4C2C89}"/>
+    <cellStyle name="Normal 19 2" xfId="173" xr:uid="{152476C5-CBDC-4858-8539-FF3FFD850ED9}"/>
+    <cellStyle name="Normal 19 2 2" xfId="174" xr:uid="{68FD6BDC-B669-4B0B-899C-9869A8623101}"/>
+    <cellStyle name="Normal 19 2 2 2" xfId="175" xr:uid="{5A73A053-10D4-401F-B45B-2987E916D8CD}"/>
+    <cellStyle name="Normal 19 2 3" xfId="176" xr:uid="{96908CCF-C489-471D-8BE9-13DEF870341F}"/>
+    <cellStyle name="Normal 19 3" xfId="177" xr:uid="{228D2AA5-2E1F-40C8-B2AB-2A523ECFF6BC}"/>
+    <cellStyle name="Normal 19 3 2" xfId="178" xr:uid="{32A1DA68-2CDE-45A8-B1F8-D53914B5890E}"/>
+    <cellStyle name="Normal 19 4" xfId="179" xr:uid="{AB5B7C2F-A1EF-400A-B10B-F64E892440E5}"/>
+    <cellStyle name="Normal 19 5" xfId="172" xr:uid="{F52D5241-624A-4A9D-9F86-50B23C5E531B}"/>
     <cellStyle name="Normal 2" xfId="54" xr:uid="{FFE373AB-EC56-4ABE-A2BF-538BCB81B450}"/>
+    <cellStyle name="Normal 2 2" xfId="181" xr:uid="{A7D8191C-9D0E-4C50-B59D-B08BC9DB4AB8}"/>
+    <cellStyle name="Normal 2 2 2" xfId="182" xr:uid="{54301262-B9BA-411E-AE22-F7B4E6C34FB7}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="183" xr:uid="{7EE1488D-EAC6-416F-A2D1-4CFDA322E756}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="184" xr:uid="{EACC6FD2-FE6E-4F43-9F30-EAD4BF5A751C}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="185" xr:uid="{04DE2810-87B3-4A11-997E-919F3BB894B9}"/>
+    <cellStyle name="Normal 2 2 3" xfId="186" xr:uid="{921C1686-44C9-4196-AD29-7CC273EB8C30}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="187" xr:uid="{6947B8F3-855C-41A8-A542-5150C1826125}"/>
+    <cellStyle name="Normal 2 2 4" xfId="188" xr:uid="{89CB966F-A49D-487A-BD68-838536A3254E}"/>
+    <cellStyle name="Normal 2 3" xfId="189" xr:uid="{2D22B347-A404-4447-8463-ACBF8416288F}"/>
+    <cellStyle name="Normal 2 4" xfId="190" xr:uid="{DA55BA6C-9A18-4EA6-A261-FDE3163EF330}"/>
+    <cellStyle name="Normal 2 5" xfId="191" xr:uid="{48031B8E-32DF-4EC8-9332-3C8E817D93C1}"/>
+    <cellStyle name="Normal 2 6" xfId="180" xr:uid="{A39ACA0F-9CC8-495B-9036-2753A0242735}"/>
+    <cellStyle name="Normal 20" xfId="192" xr:uid="{204A6C5E-8085-4944-82F1-415D842921AA}"/>
+    <cellStyle name="Normal 20 2" xfId="193" xr:uid="{8CC277EE-9984-4429-A2E5-15F6FC82A03C}"/>
+    <cellStyle name="Normal 20 2 2" xfId="194" xr:uid="{C51244A9-15B3-4B48-A7A1-952A3F7BAB9C}"/>
+    <cellStyle name="Normal 20 2 2 2" xfId="195" xr:uid="{B14ED97E-1C39-4E55-AB28-6A707A217C0C}"/>
+    <cellStyle name="Normal 20 2 3" xfId="196" xr:uid="{E97D4D74-19BF-47FD-8E34-FAF4E3875D08}"/>
+    <cellStyle name="Normal 20 3" xfId="197" xr:uid="{3A9D2945-68B7-4F62-B847-F508CCE2E337}"/>
+    <cellStyle name="Normal 20 3 2" xfId="198" xr:uid="{B673AD9F-E415-4145-ADFD-416B1C9A9330}"/>
+    <cellStyle name="Normal 20 4" xfId="199" xr:uid="{82905052-BDF1-4ACC-8003-FFCA1162E0AE}"/>
+    <cellStyle name="Normal 21" xfId="200" xr:uid="{1856C079-F45A-432B-B9B4-0F917D6F6108}"/>
+    <cellStyle name="Normal 21 2" xfId="201" xr:uid="{357B34EE-5F61-44C8-AA4F-3E1BAD7613F4}"/>
+    <cellStyle name="Normal 21 2 2" xfId="202" xr:uid="{F59B32CB-9CDD-4485-9777-EF4CAEE673EC}"/>
+    <cellStyle name="Normal 21 2 2 2" xfId="203" xr:uid="{22E13746-B7B7-4909-BE65-9444F3414FE2}"/>
+    <cellStyle name="Normal 21 2 3" xfId="204" xr:uid="{F1AE3FB7-8516-41ED-989D-621264567B33}"/>
+    <cellStyle name="Normal 21 3" xfId="205" xr:uid="{A9BD6D2D-2F6E-4E35-9974-E5CB1E9E1549}"/>
+    <cellStyle name="Normal 21 3 2" xfId="206" xr:uid="{EA62DDEC-59B9-46FE-BEAF-747C5CB0C6C0}"/>
+    <cellStyle name="Normal 21 4" xfId="207" xr:uid="{00764449-8068-492F-880C-EC5D9AD9C5DA}"/>
+    <cellStyle name="Normal 22" xfId="208" xr:uid="{68DE24E9-79AA-48CC-890D-65ADA99AC7E1}"/>
     <cellStyle name="Normal 23" xfId="55" xr:uid="{28AA8B95-1FD7-49B1-8DC0-AF1E232EEDFD}"/>
+    <cellStyle name="Normal 23 2" xfId="210" xr:uid="{ED18127A-871C-417A-B5FC-449DC5268AC0}"/>
+    <cellStyle name="Normal 23 2 2" xfId="211" xr:uid="{4846598F-C941-45CA-B4D1-2AB7EC18FA2F}"/>
+    <cellStyle name="Normal 23 2 2 2" xfId="212" xr:uid="{7230931E-5FCD-4B15-BF64-D93171420EED}"/>
+    <cellStyle name="Normal 23 2 3" xfId="213" xr:uid="{8E4A8A06-16E9-4B2E-B484-A4E70C34D5F4}"/>
+    <cellStyle name="Normal 23 3" xfId="214" xr:uid="{886686F5-CDDE-4D0B-9B0A-9797F4F32668}"/>
+    <cellStyle name="Normal 23 3 2" xfId="215" xr:uid="{387D3BCC-9DFA-4C09-8347-0A4E9B86A0AB}"/>
+    <cellStyle name="Normal 23 4" xfId="216" xr:uid="{D05C902D-5891-4522-9B7B-EEE40B7CFEE3}"/>
+    <cellStyle name="Normal 23 5" xfId="209" xr:uid="{0C6CE311-7CB8-4552-916A-9E2C1FB47520}"/>
+    <cellStyle name="Normal 24" xfId="217" xr:uid="{3E7B364F-8F9B-4EB6-A19B-0423B59F05DC}"/>
+    <cellStyle name="Normal 24 2" xfId="218" xr:uid="{7E70C4F2-EE39-4C9E-B811-9DB2961DE018}"/>
+    <cellStyle name="Normal 24 2 2" xfId="219" xr:uid="{013CA762-2DB1-4AF0-AD31-2527EC448A6E}"/>
+    <cellStyle name="Normal 24 2 2 2" xfId="220" xr:uid="{3033AF2C-0DCB-4016-BE3E-5605671639D1}"/>
+    <cellStyle name="Normal 24 2 3" xfId="221" xr:uid="{DC7B1069-4271-409A-AD60-959802063411}"/>
+    <cellStyle name="Normal 24 3" xfId="222" xr:uid="{D04C014B-6C5B-4F8E-8D9D-1837FB544850}"/>
+    <cellStyle name="Normal 24 3 2" xfId="223" xr:uid="{39F01629-6C3A-4EB4-9BD4-35129B6D0F44}"/>
+    <cellStyle name="Normal 24 4" xfId="224" xr:uid="{953C69F4-DD08-4BED-88E3-19B1F77E7E6C}"/>
+    <cellStyle name="Normal 25" xfId="225" xr:uid="{A485D217-71F5-4FB0-A649-F1F53C03B94C}"/>
+    <cellStyle name="Normal 25 2" xfId="226" xr:uid="{E1B41E9E-C8E0-42BA-8515-17D644482709}"/>
+    <cellStyle name="Normal 25 2 2" xfId="227" xr:uid="{A6645F75-FA3F-4A21-B64E-72BC6992F56D}"/>
+    <cellStyle name="Normal 25 2 2 2" xfId="228" xr:uid="{5D3531BB-E6EB-4A8C-8E46-42B21A9BEC71}"/>
+    <cellStyle name="Normal 25 2 3" xfId="229" xr:uid="{47351FB6-F62C-4929-819B-93A28CBA9197}"/>
+    <cellStyle name="Normal 25 3" xfId="230" xr:uid="{2200A564-9ACF-419F-9B48-DA85CFD2299B}"/>
+    <cellStyle name="Normal 25 3 2" xfId="231" xr:uid="{A041CEA0-E438-4EC2-8623-EB57F2685AA4}"/>
+    <cellStyle name="Normal 25 4" xfId="232" xr:uid="{C2DCFC3B-AD42-4B15-9234-07CD78A82814}"/>
+    <cellStyle name="Normal 26" xfId="233" xr:uid="{480EFE89-F2A0-4D91-BC86-2FBB56E9D7C8}"/>
+    <cellStyle name="Normal 26 2" xfId="234" xr:uid="{A0426455-25DB-4824-8521-EE6943205FD7}"/>
+    <cellStyle name="Normal 26 2 2" xfId="235" xr:uid="{DDB185C9-F212-49B4-93B0-59051C74DF50}"/>
+    <cellStyle name="Normal 26 2 2 2" xfId="236" xr:uid="{32E670A9-4664-4428-929B-CE232F5A4B59}"/>
+    <cellStyle name="Normal 26 2 3" xfId="237" xr:uid="{CBE2B8E0-E611-4C8F-9F00-1763E3B95640}"/>
+    <cellStyle name="Normal 26 3" xfId="238" xr:uid="{900800C6-B25E-44D1-A815-6B0CCB809ABA}"/>
+    <cellStyle name="Normal 26 3 2" xfId="239" xr:uid="{43DEB3A9-F447-430F-8F4C-6AC163036F4F}"/>
+    <cellStyle name="Normal 26 4" xfId="240" xr:uid="{63C23F10-9C04-4C67-BC3F-E284DF6A3779}"/>
+    <cellStyle name="Normal 27" xfId="241" xr:uid="{622223BC-8E01-45C7-A55F-86094B623D6C}"/>
+    <cellStyle name="Normal 27 2" xfId="242" xr:uid="{CB5F23E8-178D-4C5F-85D5-AC3C1A4CEE0B}"/>
+    <cellStyle name="Normal 27 2 2" xfId="243" xr:uid="{7EC29A06-F78A-4554-BC64-B5B32DB61D8E}"/>
+    <cellStyle name="Normal 27 2 2 2" xfId="244" xr:uid="{5179F47B-D8A1-4BAC-B4A1-163F447DE4A8}"/>
+    <cellStyle name="Normal 27 2 3" xfId="245" xr:uid="{6AC05E37-E4A2-4A1B-ADBA-C060753D1632}"/>
+    <cellStyle name="Normal 27 3" xfId="246" xr:uid="{CA091297-2199-4FBD-A3C6-35BD41AC11D7}"/>
+    <cellStyle name="Normal 27 3 2" xfId="247" xr:uid="{02BB8266-C14A-40C4-9139-DEECE8FEF711}"/>
+    <cellStyle name="Normal 27 4" xfId="248" xr:uid="{16C37DBF-F046-461C-AB49-88E0DB2B6764}"/>
+    <cellStyle name="Normal 28" xfId="249" xr:uid="{CC9429FD-7C41-4B65-96A3-C5F289C71975}"/>
+    <cellStyle name="Normal 28 2" xfId="250" xr:uid="{6478A8B8-6CE4-46D4-9B85-3AA20E7E4B9D}"/>
+    <cellStyle name="Normal 28 2 2" xfId="251" xr:uid="{82D7DB98-C168-4DA3-89C8-2058CBCBE01B}"/>
+    <cellStyle name="Normal 28 2 2 2" xfId="252" xr:uid="{41354B84-50DB-43EC-BA36-1FDC62D99442}"/>
+    <cellStyle name="Normal 28 2 3" xfId="253" xr:uid="{1C49DCED-A0BC-46BE-A139-AC98B76F953B}"/>
+    <cellStyle name="Normal 28 3" xfId="254" xr:uid="{B6F5B1E1-19DF-47D1-B45B-FF15A4AC2352}"/>
+    <cellStyle name="Normal 28 3 2" xfId="255" xr:uid="{59711811-FD4C-42AA-844F-877B1B532E1B}"/>
+    <cellStyle name="Normal 28 4" xfId="256" xr:uid="{2366D6F7-109D-4D3F-9EC0-4DE12717DC4A}"/>
+    <cellStyle name="Normal 29" xfId="257" xr:uid="{9891FB37-8622-4927-B670-D7744095F4E7}"/>
+    <cellStyle name="Normal 29 2" xfId="258" xr:uid="{93D0B847-2CB8-4CD4-8092-B31339E52DCA}"/>
+    <cellStyle name="Normal 29 2 2" xfId="259" xr:uid="{5F954BBC-FBFE-47DA-AC7D-59C8F315AB10}"/>
+    <cellStyle name="Normal 29 2 2 2" xfId="260" xr:uid="{FA78FFE7-1C54-4864-9D71-D2659ACBCF22}"/>
+    <cellStyle name="Normal 29 2 3" xfId="261" xr:uid="{385D9E2A-ACE9-4649-A756-21E29D08CA29}"/>
+    <cellStyle name="Normal 29 3" xfId="262" xr:uid="{5DFE1C06-D2A2-4ED9-93A0-78BCD57DD7C1}"/>
+    <cellStyle name="Normal 29 3 2" xfId="263" xr:uid="{63B8FA70-F3BB-43D4-8C89-47C1FE243457}"/>
+    <cellStyle name="Normal 29 4" xfId="264" xr:uid="{8E63F941-F9CD-4471-801B-5418C949A90D}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{70AB574A-8660-429D-87B5-B29E85FA8723}"/>
+    <cellStyle name="Normal 3 2" xfId="266" xr:uid="{9A6FC3FA-258E-49C0-B318-1FC1A5A60C99}"/>
+    <cellStyle name="Normal 3 2 2" xfId="267" xr:uid="{88394583-CB40-4177-9CCC-434EE3DD8513}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="268" xr:uid="{6BFB8FBC-BC04-4DBD-8CEE-8EAA9E6DE1D3}"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="269" xr:uid="{7C401450-6C8B-4A47-A513-885EEB6FB9ED}"/>
+    <cellStyle name="Normal 3 2 2 3" xfId="270" xr:uid="{AD40555B-4031-4413-9A11-7486665BCA1C}"/>
+    <cellStyle name="Normal 3 2 3" xfId="271" xr:uid="{ADCDE08A-39CA-4719-B7F4-F8B036E90CCD}"/>
+    <cellStyle name="Normal 3 2 3 2" xfId="272" xr:uid="{31044971-54DB-434D-9025-AF9F96EE7CD2}"/>
+    <cellStyle name="Normal 3 2 4" xfId="273" xr:uid="{DEEF2252-BA0C-4251-B7B7-279000321395}"/>
+    <cellStyle name="Normal 3 3" xfId="274" xr:uid="{EBBB718A-BAD7-4AD3-A96D-25669F70A6A5}"/>
+    <cellStyle name="Normal 3 3 2" xfId="275" xr:uid="{FC9DF935-B8DA-4231-9D1E-6288707476C9}"/>
+    <cellStyle name="Normal 3 3 3" xfId="276" xr:uid="{A4C07D70-34AC-4D0D-B5E2-8F45FAAED113}"/>
+    <cellStyle name="Normal 3 4" xfId="265" xr:uid="{C969D559-1DAC-462A-A78F-E34292867580}"/>
     <cellStyle name="Normal 30" xfId="56" xr:uid="{58131B92-7139-4B71-BFB5-DEF51CB104E9}"/>
+    <cellStyle name="Normal 30 2" xfId="278" xr:uid="{44E806C0-89B4-4711-98F9-3D6C4DBB796E}"/>
+    <cellStyle name="Normal 30 3" xfId="279" xr:uid="{B751E67D-9ADB-4D44-8435-A7DA1EAD102D}"/>
+    <cellStyle name="Normal 30 3 2" xfId="280" xr:uid="{E54EBC85-0B41-46B2-A98F-7F61B5D61B81}"/>
+    <cellStyle name="Normal 30 3 2 2" xfId="281" xr:uid="{ADAE6169-8022-4DE7-B3C4-6A571F4E9FF7}"/>
+    <cellStyle name="Normal 30 3 3" xfId="282" xr:uid="{6A804020-6E7E-46D0-AEEB-27B89E4AD516}"/>
+    <cellStyle name="Normal 30 4" xfId="283" xr:uid="{EF0197E3-1EAE-4D9C-9E1D-F2A1B9B2D2A7}"/>
+    <cellStyle name="Normal 30 4 2" xfId="284" xr:uid="{65739509-1AE1-460B-885D-49B99F2BF7A7}"/>
+    <cellStyle name="Normal 30 5" xfId="277" xr:uid="{B008C28C-7600-4876-82C8-C5CBDC03B363}"/>
     <cellStyle name="Normal 31" xfId="57" xr:uid="{A77195C8-3E09-4039-9D82-3F469A29F6AF}"/>
+    <cellStyle name="Normal 31 2" xfId="286" xr:uid="{22B2F59D-919A-47F2-8C1A-854A1F32E831}"/>
+    <cellStyle name="Normal 31 2 2" xfId="287" xr:uid="{7795B734-E743-4646-80D0-33F5F7FF0A7A}"/>
+    <cellStyle name="Normal 31 3" xfId="288" xr:uid="{0CB56279-8146-4784-BDFD-381A3D0FB4AF}"/>
+    <cellStyle name="Normal 31 4" xfId="285" xr:uid="{8FFAC897-983D-48D0-A7BF-6E14CD4F542B}"/>
+    <cellStyle name="Normal 32" xfId="289" xr:uid="{B7F4C46C-B5D6-4082-884B-889F03FD571C}"/>
+    <cellStyle name="Normal 33" xfId="290" xr:uid="{84A10789-34DD-46CE-B199-93A79F2E73B2}"/>
+    <cellStyle name="Normal 33 2" xfId="291" xr:uid="{18E2E8F2-65A8-439A-B516-9EB31FA20EE9}"/>
     <cellStyle name="Normal 34" xfId="58" xr:uid="{880DA246-9BE1-46E2-ACCA-FC8F4F5C4128}"/>
+    <cellStyle name="Normal 34 2" xfId="293" xr:uid="{1C71A888-6E5B-4733-8ECE-01B151A157EE}"/>
+    <cellStyle name="Normal 34 3" xfId="292" xr:uid="{68E02F6D-0A5F-48D2-BD73-F08DB9B371B1}"/>
     <cellStyle name="Normal 35" xfId="59" xr:uid="{4853C055-0E7C-4BAD-87D1-28573C91B524}"/>
+    <cellStyle name="Normal 35 2" xfId="295" xr:uid="{A930C372-A4A5-4C1D-B944-76770C89E8F8}"/>
+    <cellStyle name="Normal 35 3" xfId="294" xr:uid="{FE7D370C-F0FC-45A7-BE0F-A1E9967F6E26}"/>
+    <cellStyle name="Normal 36" xfId="296" xr:uid="{FAFF8BAC-E8E8-44C0-8F76-38789F7AFEB0}"/>
+    <cellStyle name="Normal 36 2" xfId="297" xr:uid="{A45F3548-A30C-425D-91F2-99C7D2A6A8A2}"/>
     <cellStyle name="Normal 37" xfId="60" xr:uid="{135F1AEB-3FD5-4E33-AF17-3A8981A2B94A}"/>
+    <cellStyle name="Normal 37 2" xfId="299" xr:uid="{039FA34A-9DC3-4C07-B03D-11D1EC2D6458}"/>
+    <cellStyle name="Normal 37 3" xfId="298" xr:uid="{07C18D28-C554-4BCC-895C-64ABE8FECE37}"/>
     <cellStyle name="Normal 38" xfId="61" xr:uid="{FC8A45C3-5EB1-4C12-A743-07E16F299C08}"/>
+    <cellStyle name="Normal 38 2" xfId="301" xr:uid="{2F1E61DE-4B13-4C6F-BBBE-4238976EDD0B}"/>
+    <cellStyle name="Normal 38 3" xfId="300" xr:uid="{BAB70E99-C44B-415F-8EBC-695BFA72D8A5}"/>
     <cellStyle name="Normal 39" xfId="62" xr:uid="{CE2D7DBE-84EF-4CD8-B35E-F8194D18FAC9}"/>
+    <cellStyle name="Normal 39 2" xfId="302" xr:uid="{FE678D2F-D135-483A-86B9-9ED2024214E9}"/>
+    <cellStyle name="Normal 4" xfId="303" xr:uid="{D2E51C57-4287-4728-B63F-1479280DD638}"/>
+    <cellStyle name="Normal 4 2" xfId="304" xr:uid="{4431EE8C-833D-47B4-B0D6-4C39237A79C0}"/>
+    <cellStyle name="Normal 4 2 2" xfId="305" xr:uid="{BF1D9FA0-CA8D-4232-9964-BE91160D9595}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="306" xr:uid="{EC12561F-E293-44C3-B0ED-383584560E8F}"/>
+    <cellStyle name="Normal 4 2 3" xfId="307" xr:uid="{AC6EE167-8A44-4162-BDAC-24D576744426}"/>
+    <cellStyle name="Normal 4 3" xfId="308" xr:uid="{DE5FA84B-66AA-4561-A422-7F283D545B5E}"/>
+    <cellStyle name="Normal 4 3 2" xfId="309" xr:uid="{D00DA12C-E189-41CD-80C9-9FE0510E0A3D}"/>
+    <cellStyle name="Normal 4 4" xfId="310" xr:uid="{EA566CA5-8D34-46C1-93B0-A476409BE1EE}"/>
     <cellStyle name="Normal 40" xfId="63" xr:uid="{C160CF1A-5C63-4FD7-B206-305FF98FEECD}"/>
+    <cellStyle name="Normal 40 2" xfId="311" xr:uid="{4EB315B7-40BF-4249-BA3B-64336081145C}"/>
+    <cellStyle name="Normal 41" xfId="74" xr:uid="{6475AC0A-B469-4DE0-9DCE-0C631E28603C}"/>
+    <cellStyle name="Normal 5" xfId="312" xr:uid="{07BF0D03-8640-4414-8B0A-9310A7557A81}"/>
+    <cellStyle name="Normal 5 2" xfId="313" xr:uid="{2D71DB11-6476-41F1-AA35-49BCA01E0F98}"/>
+    <cellStyle name="Normal 5 2 2" xfId="314" xr:uid="{6CF2BF74-61A1-482A-84E4-70F3DA40994E}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="315" xr:uid="{52380601-7DC3-4BA7-8D09-0780EC85C9B1}"/>
+    <cellStyle name="Normal 5 2 3" xfId="316" xr:uid="{F26FAE6B-1DC2-44D9-87A1-E251576EFF01}"/>
+    <cellStyle name="Normal 5 3" xfId="317" xr:uid="{03704ED2-0EA5-4627-95DB-8CD3DA47A44A}"/>
+    <cellStyle name="Normal 5 3 2" xfId="318" xr:uid="{E33F361C-0396-4423-9933-DF7D4D79D1C7}"/>
+    <cellStyle name="Normal 5 4" xfId="319" xr:uid="{1F758502-ACC0-4DF9-80D7-128348A2C5E0}"/>
     <cellStyle name="Normal 6" xfId="64" xr:uid="{84EFCFFE-1AC8-4743-AA27-460F23BDF78F}"/>
+    <cellStyle name="Normal 6 2" xfId="321" xr:uid="{9AD253F8-911B-4579-831A-2CDEDCC27CB8}"/>
+    <cellStyle name="Normal 6 2 2" xfId="322" xr:uid="{70B72301-F849-4755-8B46-573FDE0B8639}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="323" xr:uid="{6D48863C-A885-4E0C-907D-8B4D380D54EE}"/>
+    <cellStyle name="Normal 6 2 3" xfId="324" xr:uid="{F6BDD219-0F32-4715-9342-2879DE41044E}"/>
+    <cellStyle name="Normal 6 3" xfId="325" xr:uid="{D5D9AEE3-9998-4B0A-B973-972BCB882F22}"/>
+    <cellStyle name="Normal 6 3 2" xfId="326" xr:uid="{29FC982D-7576-4E19-8479-4EFED4A0B072}"/>
+    <cellStyle name="Normal 6 4" xfId="327" xr:uid="{EA322891-699C-492A-82A5-6EEB327A2922}"/>
+    <cellStyle name="Normal 6 5" xfId="320" xr:uid="{414D6D84-806F-45AC-B6BE-C480F86FB6BE}"/>
+    <cellStyle name="Normal 7" xfId="328" xr:uid="{4AB113D8-E29F-4EEB-851A-CF1EB2D038C9}"/>
+    <cellStyle name="Normal 7 2" xfId="329" xr:uid="{1EE6503C-AF14-4FEF-8391-FD9DB164D3D9}"/>
+    <cellStyle name="Normal 7 2 2" xfId="330" xr:uid="{E9107062-900F-4998-8866-6729FF9A1CEF}"/>
+    <cellStyle name="Normal 7 2 2 2" xfId="331" xr:uid="{06A6E2FF-4C7C-488B-8884-C81280C50691}"/>
+    <cellStyle name="Normal 7 2 3" xfId="332" xr:uid="{9B7F0394-A8E7-4490-A610-6D566ACD3198}"/>
+    <cellStyle name="Normal 7 3" xfId="333" xr:uid="{FA90CB27-25D6-4FE7-BFAA-AE1F5EF3D3A2}"/>
+    <cellStyle name="Normal 7 3 2" xfId="334" xr:uid="{843C022A-8404-4E87-93D0-B8CE6A241E24}"/>
+    <cellStyle name="Normal 7 4" xfId="335" xr:uid="{0734BADB-FDFF-4486-8263-D46DD6935E9D}"/>
     <cellStyle name="Normal 8" xfId="65" xr:uid="{B582C896-72B0-40A9-98AD-8FB51659A34F}"/>
+    <cellStyle name="Normal 8 2" xfId="337" xr:uid="{E5EB0449-B38B-4C31-AD6F-3C9C1C363B53}"/>
+    <cellStyle name="Normal 8 2 2" xfId="338" xr:uid="{F8AE0CCC-E661-4BB5-8C87-ABBADDD8811E}"/>
+    <cellStyle name="Normal 8 2 2 2" xfId="339" xr:uid="{7499A89E-C359-447F-9EA6-F3B812F219D7}"/>
+    <cellStyle name="Normal 8 2 3" xfId="340" xr:uid="{65D8D364-595F-4F4A-AE7E-055EB9851DAD}"/>
+    <cellStyle name="Normal 8 3" xfId="341" xr:uid="{851FA530-131D-4D48-B23F-8F01D6895694}"/>
+    <cellStyle name="Normal 8 3 2" xfId="342" xr:uid="{5FE31971-DE2D-4D87-86EB-08D9F1566715}"/>
+    <cellStyle name="Normal 8 4" xfId="343" xr:uid="{226A8E46-1BDA-4948-AB5B-9967B98A9A62}"/>
+    <cellStyle name="Normal 8 5" xfId="336" xr:uid="{AC6AD129-172A-462E-9AAE-F38564089234}"/>
     <cellStyle name="Normal 9" xfId="66" xr:uid="{871167D3-9805-430C-8E44-D834BDC6A42C}"/>
+    <cellStyle name="Normal 9 2" xfId="345" xr:uid="{4353BB7B-BB93-42A2-97EB-14D4AA11E62E}"/>
+    <cellStyle name="Normal 9 2 2" xfId="346" xr:uid="{5E6E5934-B984-40C7-AB7E-D9AF5F25A37E}"/>
+    <cellStyle name="Normal 9 2 2 2" xfId="347" xr:uid="{04DB2C67-C6FA-46E9-B668-085E510E5DB7}"/>
+    <cellStyle name="Normal 9 2 3" xfId="348" xr:uid="{81ADAAF8-A95E-40BB-968A-CB9319F95EF5}"/>
+    <cellStyle name="Normal 9 3" xfId="349" xr:uid="{06C8EE38-E9CE-47A1-90A0-30280E2A022B}"/>
+    <cellStyle name="Normal 9 3 2" xfId="350" xr:uid="{87B6DB04-46E1-49AC-93E8-BEDE3631AAB8}"/>
+    <cellStyle name="Normal 9 4" xfId="351" xr:uid="{7BAD06E4-D119-46E9-B2C4-B2C9B1CCF238}"/>
+    <cellStyle name="Normal 9 5" xfId="344" xr:uid="{ACAED176-815C-44E0-AF4C-223505391087}"/>
     <cellStyle name="Nøytral 2" xfId="44" xr:uid="{405CDDEA-9123-401F-8D97-A607115008A8}"/>
     <cellStyle name="Overskrift 1 2" xfId="35" xr:uid="{861B0A85-50E2-4A3D-BB81-5D404C7F9153}"/>
     <cellStyle name="Overskrift 2 2" xfId="36" xr:uid="{C69FCAD6-DD6D-4364-AAA9-AB41262A6680}"/>
     <cellStyle name="Overskrift 3 2" xfId="37" xr:uid="{30B0C470-FE9A-41F3-A1DD-59677F5A895D}"/>
     <cellStyle name="Overskrift 4 2" xfId="38" xr:uid="{6BEDE475-EBF4-4620-8877-DF3AEF76D02C}"/>
     <cellStyle name="Rad" xfId="69" xr:uid="{37899575-F342-4A5A-B703-3BB6D3FC0F1A}"/>
+    <cellStyle name="Rad 2" xfId="352" xr:uid="{41D6B455-337D-4F78-BF9A-8124379D53E9}"/>
     <cellStyle name="Tabelltittel" xfId="70" xr:uid="{7C2FE4E8-9F83-4762-8DEA-EB85ADB39908}"/>
+    <cellStyle name="Tabelltittel 2" xfId="353" xr:uid="{6F385FF7-D52F-4418-9A78-0578DDB6B8E2}"/>
     <cellStyle name="Tittel 2" xfId="71" xr:uid="{7F6F749F-30AC-4DD4-8587-E8F86F2AB2B3}"/>
     <cellStyle name="Totalt 2" xfId="72" xr:uid="{C74DAD25-1F21-4EF1-8270-B39C8DE88703}"/>
+    <cellStyle name="Tusenskille [0] 2" xfId="354" xr:uid="{01BD80C9-33EC-40E4-9F84-4590D6398029}"/>
+    <cellStyle name="Tusenskille [0] 3" xfId="355" xr:uid="{89CC7F7E-0C32-4E58-BCE5-6148762B3409}"/>
+    <cellStyle name="Tusenskille [0] 4" xfId="76" xr:uid="{A07D2A13-C012-40E6-9562-2B00387F8F97}"/>
+    <cellStyle name="Tusenskille 2" xfId="356" xr:uid="{5D515E4E-39DD-414A-B9EE-E47B71E35A69}"/>
+    <cellStyle name="Tusenskille 3" xfId="357" xr:uid="{108053E1-21E9-4DD6-979A-0C7D86F1F56B}"/>
+    <cellStyle name="Tusenskille 4" xfId="358" xr:uid="{EE8E9A63-CA69-4000-9699-5054E338B0F4}"/>
+    <cellStyle name="Tusenskille 5" xfId="359" xr:uid="{D922B258-303A-47A8-8023-063802B34876}"/>
+    <cellStyle name="Tusenskille 6" xfId="360" xr:uid="{CEB7B54C-2BA6-4ADA-8BEF-580076829E0D}"/>
+    <cellStyle name="Tusenskille 7" xfId="361" xr:uid="{5074FCE4-0DC2-499F-863E-98341398A3D1}"/>
+    <cellStyle name="Tusenskille 8" xfId="362" xr:uid="{618FAD67-6F43-4C6D-ABAF-BE58C97AC0ED}"/>
+    <cellStyle name="Tusenskille 9" xfId="363" xr:uid="{896D6569-8BB0-47CF-9FA2-8FE402D09A8E}"/>
     <cellStyle name="Utdata 2" xfId="68" xr:uid="{6353B3C5-9C0C-4027-A53A-F3CC82778EC2}"/>
     <cellStyle name="Uthevingsfarge1 2" xfId="20" xr:uid="{C7874CFC-C140-4504-B364-3DF78FB79A13}"/>
     <cellStyle name="Uthevingsfarge2 2" xfId="21" xr:uid="{E689CB09-89EB-4B7B-8F8D-30B3A415FFDA}"/>
@@ -719,6 +1507,27 @@
     <cellStyle name="Uthevingsfarge4 2" xfId="23" xr:uid="{50E431CB-329B-48E7-ACDE-B2F3AF673116}"/>
     <cellStyle name="Uthevingsfarge5 2" xfId="24" xr:uid="{5685D477-E4B1-4884-8547-0CBF733E8F13}"/>
     <cellStyle name="Uthevingsfarge6 2" xfId="25" xr:uid="{31F8BA19-1603-4009-A2E7-AE1467B347CB}"/>
+    <cellStyle name="Valuta [0] 2" xfId="364" xr:uid="{8A32F248-4E48-4F61-9DAE-9919C3DE3E19}"/>
+    <cellStyle name="Valuta [0] 3" xfId="365" xr:uid="{49120327-2662-4EA4-8286-A980E8A73F0D}"/>
+    <cellStyle name="Valuta [0] 4" xfId="95" xr:uid="{49206BD2-DBCF-4CE1-B070-BECDE4864CC0}"/>
+    <cellStyle name="Valuta 10" xfId="366" xr:uid="{5AD4FC0F-0ABD-4B15-A860-5D9F80C11E60}"/>
+    <cellStyle name="Valuta 11" xfId="367" xr:uid="{D00513BB-1CF9-4436-8CEA-86BC6F89790A}"/>
+    <cellStyle name="Valuta 12" xfId="368" xr:uid="{6E3961A1-970B-4043-A0A9-8E4DC81D718E}"/>
+    <cellStyle name="Valuta 13" xfId="369" xr:uid="{3A740679-7ABA-442A-833A-50B3A5650A3E}"/>
+    <cellStyle name="Valuta 14" xfId="370" xr:uid="{62C5DFD9-4EAE-4D8F-A548-3D600FCF2EA5}"/>
+    <cellStyle name="Valuta 15" xfId="371" xr:uid="{D1807E93-61A3-43CB-BF36-7ECCE3E0BD80}"/>
+    <cellStyle name="Valuta 16" xfId="372" xr:uid="{CB01F085-415D-4A22-A1E3-67013A2EFA40}"/>
+    <cellStyle name="Valuta 17" xfId="373" xr:uid="{D3A0F87E-14A0-4EF0-8264-875D485651DE}"/>
+    <cellStyle name="Valuta 18" xfId="374" xr:uid="{B0426F5A-9696-423B-B66A-4CD6FA344601}"/>
+    <cellStyle name="Valuta 19" xfId="94" xr:uid="{C71549E2-19F6-433B-9A9F-FA95A677CA8D}"/>
+    <cellStyle name="Valuta 2" xfId="375" xr:uid="{C10CEA0E-D3AF-4303-8162-75F9C2975880}"/>
+    <cellStyle name="Valuta 3" xfId="376" xr:uid="{CE4A761B-7E12-4A53-85F4-1C3E3EF974D2}"/>
+    <cellStyle name="Valuta 4" xfId="377" xr:uid="{EF58C745-A621-4523-B62D-A95249F641F6}"/>
+    <cellStyle name="Valuta 5" xfId="378" xr:uid="{E0D9DD58-1839-4BD7-92C7-65B5E92381A9}"/>
+    <cellStyle name="Valuta 6" xfId="379" xr:uid="{05811877-7A73-4D8D-9BBF-1912A150927E}"/>
+    <cellStyle name="Valuta 7" xfId="380" xr:uid="{60F61188-A6FC-4FA6-BBDA-ECBCD1895D8D}"/>
+    <cellStyle name="Valuta 8" xfId="381" xr:uid="{28F31749-6FA0-4F9C-A16F-B885FB337C47}"/>
+    <cellStyle name="Valuta 9" xfId="382" xr:uid="{6361BD36-1173-44E5-AF5E-292D6541E1EB}"/>
     <cellStyle name="Varseltekst 2" xfId="73" xr:uid="{D5579912-6B60-4C7B-B93B-A1F0A94AFB37}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1031,108 +1840,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2AB882-C8FB-40A3-95EC-474A5D3BB6C6}">
-  <dimension ref="B1:B19"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="2">
+      <c r="B1" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.29</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.58</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.78</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="2">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="2">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="2">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="2">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="2">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="2">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="2">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="2">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="2">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="2">
-        <v>3642</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="2">
-        <v>4077</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="2">
-        <v>4765</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="2">
-        <v>5303</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="2">
-        <v>6020</v>
-      </c>
+      <c r="B21" s="1">
+        <v>6.77</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.34</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4.92</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PO data.xlsx
+++ b/PO data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c89e911ec1599c7/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{7F02A131-FB8E-4E5B-BC73-0614B53CEE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD87B9A5-F971-429D-B3F2-E3A58DB52168}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{7F02A131-FB8E-4E5B-BC73-0614B53CEE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24765AC7-048F-465E-A845-609D13BFF5A4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2453" yWindow="2453" windowWidth="16200" windowHeight="9307" xr2:uid="{4844D5D6-45E6-4CF5-8858-C62B7F87747D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4844D5D6-45E6-4CF5-8858-C62B7F87747D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>1900</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>1940</t>
+  </si>
+  <si>
+    <t>år</t>
+  </si>
+  <si>
+    <t>rente</t>
   </si>
 </sst>
 </file>
@@ -1840,20 +1846,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2AB882-C8FB-40A3-95EC-474A5D3BB6C6}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>3.7</v>
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -1863,10 +1869,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3.56</v>
+        <v>3.7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1876,10 +1882,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1889,10 +1895,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -1902,10 +1908,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -1915,10 +1921,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -1928,10 +1934,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -1941,10 +1947,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3.69</v>
+        <v>3.55</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -1954,10 +1960,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1967,10 +1973,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3.63</v>
+        <v>3.76</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -1980,10 +1986,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3.69</v>
+        <v>3.63</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -1993,10 +1999,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.8</v>
+        <v>3.69</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -2006,10 +2012,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -2019,10 +2025,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4.21</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -2032,10 +2038,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4.29</v>
+        <v>4.21</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -2045,10 +2051,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>5.0599999999999996</v>
+        <v>4.29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -2058,10 +2064,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5.17</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -2071,10 +2077,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>5.12</v>
+        <v>5.17</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -2084,10 +2090,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>5.58</v>
+        <v>5.12</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -2097,10 +2103,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>5.78</v>
+        <v>5.58</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -2110,10 +2116,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>6.77</v>
+        <v>5.78</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -2123,10 +2129,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>6.02</v>
+        <v>6.77</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -2136,10 +2142,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>5.05</v>
+        <v>6.02</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
@@ -2149,10 +2155,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>5.35</v>
+        <v>5.05</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -2162,10 +2168,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>5.85</v>
+        <v>5.35</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -2175,10 +2181,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>5.68</v>
+        <v>5.85</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -2188,10 +2194,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>5.34</v>
+        <v>5.68</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -2201,10 +2207,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>5.25</v>
+        <v>5.34</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -2214,10 +2220,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -2227,10 +2233,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>5.36</v>
+        <v>5.26</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -2240,10 +2246,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>5.05</v>
+        <v>5.36</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -2253,10 +2259,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.05</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
@@ -2266,10 +2272,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4.92</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
@@ -2279,10 +2285,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4.74</v>
+        <v>4.92</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
@@ -2292,10 +2298,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4.7300000000000004</v>
+        <v>4.74</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
@@ -2305,10 +2311,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4.26</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
@@ -2318,10 +2324,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4.4400000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
@@ -2331,10 +2337,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4.26</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
@@ -2344,10 +2350,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>3.81</v>
+        <v>4.26</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
@@ -2357,10 +2363,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4.34</v>
+        <v>3.81</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
@@ -2370,16 +2376,24 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>5</v>
+        <v>4.34</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
